--- a/biology/Botanique/Galbord/Galbord.xlsx
+++ b/biology/Botanique/Galbord/Galbord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En architecture navale, un galbord (gabord ou calbord) est une suite de bordages ou de virure s'enchâssant dans la rablure de la quille, à la base du bordé[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En architecture navale, un galbord (gabord ou calbord) est une suite de bordages ou de virure s'enchâssant dans la rablure de la quille, à la base du bordé.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme vient de l'ancien néerlandais garrbord[1] ayant donné aussi e terme anglais Garboard.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme vient de l'ancien néerlandais garrbord ayant donné aussi e terme anglais Garboard.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le galbord constitue le bordage le plus bas, celui au dessus s'appelle le ribord ou bordage de fond[1]. C'est dans un bateau en bois une pièce critique car elle prend avec le temps du jeu dans la rablure de la quille qui peut provoquer une voie d'eau[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le galbord constitue le bordage le plus bas, celui au dessus s'appelle le ribord ou bordage de fond. C'est dans un bateau en bois une pièce critique car elle prend avec le temps du jeu dans la rablure de la quille qui peut provoquer une voie d'eau.
 </t>
         </is>
       </c>
